--- a/data_migration/exports/product.xlsx
+++ b/data_migration/exports/product.xlsx
@@ -512,12 +512,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-09-15 22:07:54.724379-04:00</t>
+          <t>2022-09-15 22:07:54.724379</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2022-09-15 22:07:54.724379-04:00</t>
+          <t>2022-09-15 22:07:54.724379</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -552,12 +552,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2022-09-19 20:37:20.308606-04:00</t>
+          <t>2022-09-19 20:37:20.308606</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2022-09-19 20:37:20.308606-04:00</t>
+          <t>2022-09-19 20:37:20.308606</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -590,12 +590,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2022-09-15 22:24:33.948724-04:00</t>
+          <t>2022-09-15 22:24:33.948724</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2022-09-15 22:24:33.948724-04:00</t>
+          <t>2022-09-15 22:24:33.948724</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -630,12 +630,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2022-09-20 12:31:51.059005-04:00</t>
+          <t>2022-09-20 12:31:51.059005</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2022-09-20 12:31:51.059005-04:00</t>
+          <t>2022-09-20 12:31:51.059005</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -670,12 +670,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2022-09-18 16:06:18.741274-04:00</t>
+          <t>2022-09-18 16:06:18.741274</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2022-09-18 16:06:18.741274-04:00</t>
+          <t>2022-09-18 16:06:18.741274</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
